--- a/IP-NDN.xlsx
+++ b/IP-NDN.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>site</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>192.168.5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bandung </t>
   </si>
   <si>
     <t>192.168.5.9</t>
@@ -756,7 +753,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -776,19 +773,19 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -796,19 +793,19 @@
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -816,19 +813,19 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -839,16 +836,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -862,13 +859,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -876,19 +873,19 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -896,19 +893,19 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -922,13 +919,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -939,16 +936,16 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -956,19 +953,19 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>10</v>
